--- a/数据.xlsx
+++ b/数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\德意杨杨\Desktop\解决方案PPT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5715428F-4469-4B70-979F-202876C32F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADD6CF5-7770-41C8-AFCB-2558559E878D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-12930" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
